--- a/User-Stories/user story(housing).xlsx
+++ b/User-Stories/user story(housing).xlsx
@@ -27,15 +27,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t xml:space="preserve">     ID</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                      User Story</t>
+    <t xml:space="preserve">                                                                                                     User Story</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">      </t>
     </r>
     <r>
@@ -111,7 +118,7 @@
     <t>US06</t>
   </si>
   <si>
-    <t xml:space="preserve">En tant qu'utilisateur je veux pouvoir réserver un logement </t>
+    <t>En tant qu'utilisateur je veux pouvoir réserver un logement</t>
   </si>
   <si>
     <t>"Réservation réussie après validation du paiement"</t>
@@ -145,6 +152,42 @@
   </si>
   <si>
     <t>"Historique affiché avec date+lieu+prix"</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>En tant que propriétaire je veux ajouter un logement avec ses informations</t>
+  </si>
+  <si>
+    <t>"Le logement est ajouté avec toutes les informations obligatoires (nom, adresse, photos, prix, équipements)"</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>En tant que propriétaire je veux modifier les informations d’un logement</t>
+  </si>
+  <si>
+    <t>"Les modifications sont sauvegardées et visibles dans la liste des logements"</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>En tant que propriétaire je veux supprimer un logement</t>
+  </si>
+  <si>
+    <t>"Le logement supprimé n’apparaît plus dans la liste des logements et dans les recherches"</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>En tant que propriétaire Je veux consulter la liste des réservations de mes logements</t>
+  </si>
+  <si>
+    <t>"Toutes les réservations sont affichées avec date, utilisateur et logement réservé"</t>
   </si>
 </sst>
 </file>
@@ -572,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -584,6 +627,32 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -719,7 +788,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,34 +800,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,7 +912,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,16 +934,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1410,18 +1491,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="87.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="99.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="13.2222222222222" customWidth="1"/>
     <col min="4" max="4" width="20.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="57.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="88.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1592,6 +1673,74 @@
       </c>
       <c r="E10" s="10" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13">
+        <v>5</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="13">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/User-Stories/user story(housing).xlsx
+++ b/User-Stories/user story(housing).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t xml:space="preserve">     ID</t>
   </si>
@@ -157,13 +157,25 @@
     <t>US10</t>
   </si>
   <si>
+    <t>En tant que propriétaire je veux créer un compte pour accéder à l'application</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>En tant que propriétaire je veux me connecter pour accéder aux fonctionnalités</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
     <t>En tant que propriétaire je veux ajouter un logement avec ses informations</t>
   </si>
   <si>
     <t>"Le logement est ajouté avec toutes les informations obligatoires (nom, adresse, photos, prix, équipements)"</t>
   </si>
   <si>
-    <t>US11</t>
+    <t>US13</t>
   </si>
   <si>
     <t>En tant que propriétaire je veux modifier les informations d’un logement</t>
@@ -172,7 +184,7 @@
     <t>"Les modifications sont sauvegardées et visibles dans la liste des logements"</t>
   </si>
   <si>
-    <t>US12</t>
+    <t>US14</t>
   </si>
   <si>
     <t>En tant que propriétaire je veux supprimer un logement</t>
@@ -181,7 +193,7 @@
     <t>"Le logement supprimé n’apparaît plus dans la liste des logements et dans les recherches"</t>
   </si>
   <si>
-    <t>US13</t>
+    <t>US15</t>
   </si>
   <si>
     <t>En tant que propriétaire Je veux consulter la liste des réservations de mes logements</t>
@@ -912,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,9 +962,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1491,10 +1500,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1685,62 +1694,96 @@
       <c r="C11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>37</v>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9">
         <v>3</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>40</v>
+      <c r="E12" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="11" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D16" s="9">
         <v>5</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>46</v>
+      <c r="E16" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
